--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/151.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/151.xlsx
@@ -479,13 +479,13 @@
         <v>0.0477199377777019</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.781617064747143</v>
+        <v>-1.759442178702614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04317289214018063</v>
+        <v>0.05236744634215761</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09110236468725783</v>
+        <v>-0.09347129659574728</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.05194635362997163</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.919414613482801</v>
+        <v>-1.892310348528795</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01994047964835491</v>
+        <v>-0.008606933633022496</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07112807244443567</v>
+        <v>-0.07407642899583579</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05686373822431096</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.057969683698981</v>
+        <v>-2.024506385769199</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04870494868447007</v>
+        <v>-0.05084333057714876</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09377991645818179</v>
+        <v>-0.09677340713966126</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.05897136490974157</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.079839609405136</v>
+        <v>-2.032353015275563</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05258282434723422</v>
+        <v>-0.05315553986270065</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09535473164554528</v>
+        <v>-0.09453804785937964</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.05620510527465977</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.0386553256284</v>
+        <v>-1.976893538059538</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02763157938214792</v>
+        <v>-0.03031706012186962</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1020583698036832</v>
+        <v>-0.1065290883642464</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.0479606782587706</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.786936182969063</v>
+        <v>-1.725053631106205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09722101291020979</v>
+        <v>0.1036568958912553</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1085460960422523</v>
+        <v>-0.1147258123390636</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03557568316439026</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.439175880945592</v>
+        <v>-1.385707184818474</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1773493418179859</v>
+        <v>0.1838517061527969</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.08048425562575089</v>
+        <v>-0.08548011588899422</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.02187226720957825</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.051401732924066</v>
+        <v>-1.020319565316308</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2473932422564096</v>
+        <v>0.2572398016618302</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0632039830121249</v>
+        <v>-0.06960083106985854</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.01116680177473493</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5679054140523451</v>
+        <v>-0.5330893120615358</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2565487615350747</v>
+        <v>0.282676543485608</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03290251387060464</v>
+        <v>-0.04872080662206552</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.01117200458413455</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05478029253937292</v>
+        <v>0.1091315438857459</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1875179393407295</v>
+        <v>0.2219705286081971</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04605293757578496</v>
+        <v>0.0295368955701243</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03102456868452093</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6516273195813362</v>
+        <v>0.7089598631956537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03164966079437957</v>
+        <v>0.07275587472449169</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09114010376303165</v>
+        <v>0.07517847965253498</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.07997382611346564</v>
       </c>
       <c r="E13" t="n">
-        <v>1.278750809017073</v>
+        <v>1.334019990981952</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1246028677783216</v>
+        <v>-0.05712063418223978</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1986758282011585</v>
+        <v>0.1827325017109643</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1648066348348734</v>
       </c>
       <c r="E14" t="n">
-        <v>1.912947548541057</v>
+        <v>1.975232038129892</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3411692322332848</v>
+        <v>-0.261032974356711</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3153249873912548</v>
+        <v>0.306243878435153</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2876174527387858</v>
       </c>
       <c r="E15" t="n">
-        <v>2.568162154585779</v>
+        <v>2.647434764784078</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6349716817468848</v>
+        <v>-0.5573196307867059</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4518301142128842</v>
+        <v>0.4392742871613486</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4457346582205825</v>
       </c>
       <c r="E16" t="n">
-        <v>3.126438407950872</v>
+        <v>3.209311989824692</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9555716061140875</v>
+        <v>-0.8611290488437112</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5796688781386004</v>
+        <v>0.5653814862857771</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6308450550922869</v>
       </c>
       <c r="E17" t="n">
-        <v>3.671323242937285</v>
+        <v>3.762452711091566</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.29750411607123</v>
+        <v>-1.184507771814178</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6926274073136942</v>
+        <v>0.6663934991654067</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8319812877889601</v>
       </c>
       <c r="E18" t="n">
-        <v>4.123797776348246</v>
+        <v>4.23908376282581</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.653104948394297</v>
+        <v>-1.541619987574226</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8537806485240661</v>
+        <v>0.8184528230854651</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.038107097650504</v>
       </c>
       <c r="E19" t="n">
-        <v>4.528342303297637</v>
+        <v>4.659791187709025</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.023454882522485</v>
+        <v>-1.906266553454144</v>
       </c>
       <c r="G19" t="n">
-        <v>1.010094779085119</v>
+        <v>0.9867860505025151</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.238823849309368</v>
       </c>
       <c r="E20" t="n">
-        <v>4.889673950299429</v>
+        <v>5.041712536916477</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.330476142863246</v>
+        <v>-2.204595224309891</v>
       </c>
       <c r="G20" t="n">
-        <v>1.140501918980621</v>
+        <v>1.130561431790981</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.421448922521663</v>
       </c>
       <c r="E21" t="n">
-        <v>5.121061997120046</v>
+        <v>5.28078192474006</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.659067857857878</v>
+        <v>-2.533781002043676</v>
       </c>
       <c r="G21" t="n">
-        <v>1.270711444576857</v>
+        <v>1.250418163820096</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.573996668968013</v>
       </c>
       <c r="E22" t="n">
-        <v>5.33011108923409</v>
+        <v>5.498190589649613</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.927492727853345</v>
+        <v>-2.811888362782518</v>
       </c>
       <c r="G22" t="n">
-        <v>1.426229018734077</v>
+        <v>1.422259654969801</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.685538582864181</v>
       </c>
       <c r="E23" t="n">
-        <v>5.434209910658741</v>
+        <v>5.584218681263573</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.167020471065504</v>
+        <v>-3.069591742161769</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5206703561631</v>
+        <v>1.521897516564717</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.748446267622654</v>
       </c>
       <c r="E24" t="n">
-        <v>5.528503647283991</v>
+        <v>5.675981247080318</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.346045912906286</v>
+        <v>-3.257643400097746</v>
       </c>
       <c r="G24" t="n">
-        <v>1.622299608767598</v>
+        <v>1.637922116981823</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.760799233558772</v>
       </c>
       <c r="E25" t="n">
-        <v>5.562298132141247</v>
+        <v>5.695066884897118</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.441132851371647</v>
+        <v>-3.364707655852746</v>
       </c>
       <c r="G25" t="n">
-        <v>1.655182262213116</v>
+        <v>1.662189030947598</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.725929229042251</v>
       </c>
       <c r="E26" t="n">
-        <v>5.549337317760351</v>
+        <v>5.683018511848637</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.45708014234624</v>
+        <v>-3.391790268622729</v>
       </c>
       <c r="G26" t="n">
-        <v>1.670075915218627</v>
+        <v>1.698103600077231</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.652138863021168</v>
       </c>
       <c r="E27" t="n">
-        <v>5.463667859504319</v>
+        <v>5.586715696514179</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.542949959544583</v>
+        <v>-3.494879976287701</v>
       </c>
       <c r="G27" t="n">
-        <v>1.666288307816022</v>
+        <v>1.685616694062168</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.551612626038183</v>
       </c>
       <c r="E28" t="n">
-        <v>5.372055334174053</v>
+        <v>5.488424539773523</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.55587326380386</v>
+        <v>-3.515004004056664</v>
       </c>
       <c r="G28" t="n">
-        <v>1.657404203238509</v>
+        <v>1.676753936708342</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.436743282277879</v>
       </c>
       <c r="E29" t="n">
-        <v>5.195849250661539</v>
+        <v>5.294540515366143</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.514627987959449</v>
+        <v>-3.490547404760421</v>
       </c>
       <c r="G29" t="n">
-        <v>1.625696257016408</v>
+        <v>1.650364498787483</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.318581198892182</v>
       </c>
       <c r="E30" t="n">
-        <v>5.074548226469886</v>
+        <v>5.170320410815573</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.429057641813388</v>
+        <v>-3.418600246850205</v>
       </c>
       <c r="G30" t="n">
-        <v>1.563791748009187</v>
+        <v>1.588736893767506</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.205660140916159</v>
       </c>
       <c r="E31" t="n">
-        <v>4.845000920251694</v>
+        <v>4.920756727827863</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.374293169208519</v>
+        <v>-3.364623181839017</v>
       </c>
       <c r="G31" t="n">
-        <v>1.473882731129079</v>
+        <v>1.497207317649279</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.102405421806707</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638662315625119</v>
+        <v>4.681933747957687</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.262689883777159</v>
+        <v>-3.247654729174643</v>
       </c>
       <c r="G32" t="n">
-        <v>1.452764837617355</v>
+        <v>1.469400424075658</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.010456537465233</v>
       </c>
       <c r="E33" t="n">
-        <v>4.418828606104817</v>
+        <v>4.453283025134314</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.126154870842369</v>
+        <v>-3.11989403509555</v>
       </c>
       <c r="G33" t="n">
-        <v>1.359038327221481</v>
+        <v>1.370916532401149</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.92861733951639</v>
       </c>
       <c r="E34" t="n">
-        <v>4.142454030008615</v>
+        <v>4.154837859429308</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.955467349613071</v>
+        <v>-2.931559678925901</v>
       </c>
       <c r="G34" t="n">
-        <v>1.266401745074955</v>
+        <v>1.280665350021385</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8537145990351213</v>
       </c>
       <c r="E35" t="n">
-        <v>3.859116599466658</v>
+        <v>3.859647230455429</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.832865974538591</v>
+        <v>-2.812661742200635</v>
       </c>
       <c r="G35" t="n">
-        <v>1.173407749411856</v>
+        <v>1.18378250012334</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7818271482782506</v>
       </c>
       <c r="E36" t="n">
-        <v>3.599033004646398</v>
+        <v>3.585540339435378</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.723215655114179</v>
+        <v>-2.704515487165083</v>
       </c>
       <c r="G36" t="n">
-        <v>1.099817160238142</v>
+        <v>1.104391565313752</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.709846024996359</v>
       </c>
       <c r="E37" t="n">
-        <v>3.274413703019426</v>
+        <v>3.255617167603404</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.606869626500426</v>
+        <v>-2.581618910483057</v>
       </c>
       <c r="G37" t="n">
-        <v>0.974851122699909</v>
+        <v>0.9752140255025742</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6352757699985333</v>
       </c>
       <c r="E38" t="n">
-        <v>2.980094040771943</v>
+        <v>2.956580378841952</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.493016343692543</v>
+        <v>-2.45697796066553</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9115431862154909</v>
+        <v>0.9098787126886454</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5572000295048442</v>
       </c>
       <c r="E39" t="n">
-        <v>2.702939986050859</v>
+        <v>2.671470518813365</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.378578146955658</v>
+        <v>-2.336958379815724</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8170780618800749</v>
+        <v>0.8085818668529745</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4761403422648036</v>
       </c>
       <c r="E40" t="n">
-        <v>2.43842958695876</v>
+        <v>2.402323502736629</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.300452797550323</v>
+        <v>-2.256650734228984</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7510748859251071</v>
+        <v>0.7340111351517267</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3936547914904975</v>
       </c>
       <c r="E41" t="n">
-        <v>2.11879882654691</v>
+        <v>2.077708470554394</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.210656006074736</v>
+        <v>-2.159399492242183</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6369934927841201</v>
+        <v>0.6174912791451009</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3123918988457101</v>
       </c>
       <c r="E42" t="n">
-        <v>1.886061635189326</v>
+        <v>1.843666048948569</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.117300327450325</v>
+        <v>-2.063796865844632</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5970308801229106</v>
+        <v>0.5784789228982649</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2343103850952173</v>
       </c>
       <c r="E43" t="n">
-        <v>1.635107942979307</v>
+        <v>1.594544558451501</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.020052135066908</v>
+        <v>-1.964678046745628</v>
       </c>
       <c r="G43" t="n">
-        <v>0.527027844369829</v>
+        <v>0.5080538220368737</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1606742544353814</v>
       </c>
       <c r="E44" t="n">
-        <v>1.457563693502008</v>
+        <v>1.422310888306647</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.90249358414778</v>
+        <v>-1.842277945494475</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4618303736288453</v>
+        <v>0.4435723981703922</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.09237056746963908</v>
       </c>
       <c r="E45" t="n">
-        <v>1.259054640602848</v>
+        <v>1.223132752425095</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.813390882402333</v>
+        <v>-1.744042901456079</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4055798292950789</v>
+        <v>0.3848028814416564</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.03018088875270908</v>
       </c>
       <c r="E46" t="n">
-        <v>1.092202910509619</v>
+        <v>1.062526000141089</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.740621856380199</v>
+        <v>-1.673148771594268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3073392959705925</v>
+        <v>0.2879377192432367</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.02582050723127646</v>
       </c>
       <c r="E47" t="n">
-        <v>0.892604539281787</v>
+        <v>0.8603299767509867</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.660178808403221</v>
+        <v>-1.595036840443821</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2519719167767573</v>
+        <v>0.2288662917795106</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.07467036865790935</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7406812276726434</v>
+        <v>0.7232246879834373</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.562237746131018</v>
+        <v>-1.490823963852618</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1764314111994801</v>
+        <v>0.1475583762829037</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1164196197210242</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6266224015966961</v>
+        <v>0.6037668440769162</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.444892667448752</v>
+        <v>-1.379572602651742</v>
       </c>
       <c r="G49" t="n">
-        <v>0.133279523319555</v>
+        <v>0.1151764677129959</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1513977460310083</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5057025778280099</v>
+        <v>0.4968288419020024</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.327587233610475</v>
+        <v>-1.262582497803344</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08265854683217315</v>
+        <v>0.05792260386597892</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.180059497327698</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3678361080558789</v>
+        <v>0.3529381856056308</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.268888467680242</v>
+        <v>-1.197070307993158</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03718957030128218</v>
+        <v>0.0167389300099198</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2035535023516509</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2735283432550639</v>
+        <v>0.2735954345295062</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.197290489357464</v>
+        <v>-1.113971055468942</v>
       </c>
       <c r="G52" t="n">
-        <v>4.662092867895029e-05</v>
+        <v>-0.01430786219858659</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2232175188673897</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1621610971256058</v>
+        <v>0.1583905675019493</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.13251325396276</v>
+        <v>-1.052260501236927</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0440628424137406</v>
+        <v>-0.0557300150392542</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2401190781514924</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06586438099791538</v>
+        <v>0.06658957668256882</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.038953861832314</v>
+        <v>-0.9627296351764028</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1239325649545755</v>
+        <v>-0.1365438947876951</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2554099360377854</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.008852731665751963</v>
+        <v>-0.0003150620326326481</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.038076795899151</v>
+        <v>-0.9603729016814482</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1366927154328217</v>
+        <v>-0.1359766685583194</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2698569747640152</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.05527501421440015</v>
+        <v>-0.0446123809434906</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.003859026092231</v>
+        <v>-0.9215490109237273</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.198685662938171</v>
+        <v>-0.2078985147604504</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2845974370127646</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1578179279926674</v>
+        <v>-0.144826007657257</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.971061761541458</v>
+        <v>-0.8895940468275431</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2255032651741064</v>
+        <v>-0.2331108057751849</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3000422373648601</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2550600211693173</v>
+        <v>-0.2389843418922687</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9431139762915084</v>
+        <v>-0.8531567756779374</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2628950621828228</v>
+        <v>-0.268174535560754</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3166194538904092</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3554328371797149</v>
+        <v>-0.3318240276241511</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.936343856779605</v>
+        <v>-0.8514941319131222</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2884031647257801</v>
+        <v>-0.2924731654017199</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3347575193885529</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.463122871549059</v>
+        <v>-0.4436267571168073</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9459653554553056</v>
+        <v>-0.865826047975348</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3374133407058703</v>
+        <v>-0.3309341533567757</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3545611623287066</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5701615106356361</v>
+        <v>-0.5463050732853126</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.960738854087497</v>
+        <v>-0.882886139224668</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.37605364533989</v>
+        <v>-0.379897975365433</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3758152088543871</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6347521103032555</v>
+        <v>-0.6043402455192438</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9576002022849516</v>
+        <v>-0.8773145138425744</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4018563395697166</v>
+        <v>-0.407079700245387</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3984829084050172</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7381245162019001</v>
+        <v>-0.7019312133229936</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9742229804090431</v>
+        <v>-0.8890237709947837</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4519216783205809</v>
+        <v>-0.4545059122279624</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4222553859686864</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7660564435142542</v>
+        <v>-0.7244787609010158</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9990723686211125</v>
+        <v>-0.9130296389109105</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4833185649975407</v>
+        <v>-0.4843786071337288</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4471271523217502</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8395341973627695</v>
+        <v>-0.7946592835710311</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.038531796724005</v>
+        <v>-0.9578203836492576</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4946728483158825</v>
+        <v>-0.4863718279053415</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4725588637408806</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.875424979586009</v>
+        <v>-0.824627736023047</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.085400541208033</v>
+        <v>-1.009295859004763</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5219472811387023</v>
+        <v>-0.513760315894713</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4987207003912689</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9064107797268406</v>
+        <v>-0.8469831585878935</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.146135832277927</v>
+        <v>-1.07276359470649</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5525518808565663</v>
+        <v>-0.5506861335063939</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5256438032585756</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9579100419887395</v>
+        <v>-0.8960354190946793</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.160066420534853</v>
+        <v>-1.087484030239804</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5706854324969628</v>
+        <v>-0.5623465970044633</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5528288005455103</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9631559697294496</v>
+        <v>-0.9072945547874485</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.203271981434332</v>
+        <v>-1.135582374808156</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5831442821608953</v>
+        <v>-0.572653036600152</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5802094898148159</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9561028470235351</v>
+        <v>-0.9021023000662922</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.224918066252121</v>
+        <v>-1.156708807209355</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5926669736869628</v>
+        <v>-0.5817683011141518</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6070860034954286</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9496700136458733</v>
+        <v>-0.8940214610200572</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.263544342710575</v>
+        <v>-1.198341992604177</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5958166040616898</v>
+        <v>-0.5902956020957664</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6327481320716177</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9553855803076794</v>
+        <v>-0.9087949596522487</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.327279833589394</v>
+        <v>-1.267858311657214</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.625186114409139</v>
+        <v>-0.6167887265316717</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6562764858025993</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8939000868053844</v>
+        <v>-0.8352312069883119</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.396853485186045</v>
+        <v>-1.335946196485307</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6261290517753915</v>
+        <v>-0.6295513166926249</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6767702799199824</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8226436640615855</v>
+        <v>-0.7692469385743232</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.443597195931339</v>
+        <v>-1.382297728235452</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6379468748080619</v>
+        <v>-0.6330644597906937</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6932583605659141</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6885190576413038</v>
+        <v>-0.6377169347129278</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.487501725926371</v>
+        <v>-1.436448315679175</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6234008765882975</v>
+        <v>-0.6286809598869053</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7056483015281289</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5598099369098681</v>
+        <v>-0.5096720175984708</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.490490947163114</v>
+        <v>-1.43785784236314</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5970687712110535</v>
+        <v>-0.589081250028361</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7130977598486776</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4559611829626833</v>
+        <v>-0.4065942033866955</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.525192993987371</v>
+        <v>-1.475003841339127</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5539266420619564</v>
+        <v>-0.547778641640336</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7156791299540257</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2680799978558581</v>
+        <v>-0.2157500236322282</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.560434210689874</v>
+        <v>-1.517941037140837</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5408847082310526</v>
+        <v>-0.5270590263305277</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7137586776709173</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.07756273558412768</v>
+        <v>-0.01509892931632882</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.576441578851127</v>
+        <v>-1.519439612243607</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4721277404205673</v>
+        <v>-0.4595938705133947</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7073529042800222</v>
       </c>
       <c r="E80" t="n">
-        <v>0.09549188779162904</v>
+        <v>0.1629564336880852</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.615633861697603</v>
+        <v>-1.578712923451336</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4743649294628792</v>
+        <v>-0.4675045416908171</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6975112861329446</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2881274045737054</v>
+        <v>0.3650359622289285</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.599241023668646</v>
+        <v>-1.56005788963232</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4442232595386669</v>
+        <v>-0.435096406531809</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6846247951156076</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4638705582925676</v>
+        <v>0.5411292104162441</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.612459834495806</v>
+        <v>-1.580939133921467</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3741878979897177</v>
+        <v>-0.3573284706430479</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6691580094490301</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6455549493236326</v>
+        <v>0.7211588866512916</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.5912260560555</v>
+        <v>-1.559616916983031</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3414504056652657</v>
+        <v>-0.3282431833309633</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.651910962239866</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8719575045325116</v>
+        <v>0.9650173716287002</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.562823879901373</v>
+        <v>-1.53607519870191</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2752307078700523</v>
+        <v>-0.2483673615833608</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6334514171786951</v>
       </c>
       <c r="E85" t="n">
-        <v>1.033666383479401</v>
+        <v>1.117652460667609</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.481367753680316</v>
+        <v>-1.46898087465624</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2291603495518877</v>
+        <v>-0.1976378192155178</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.6143418768277379</v>
       </c>
       <c r="E86" t="n">
-        <v>1.219311599385268</v>
+        <v>1.295752347881425</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.394801712029464</v>
+        <v>-1.382656971514057</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1670295599735933</v>
+        <v>-0.1440520183184637</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5952455001764454</v>
       </c>
       <c r="E87" t="n">
-        <v>1.378596653562761</v>
+        <v>1.464054469343961</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.250441416811997</v>
+        <v>-1.246913635617686</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.09985106687453196</v>
+        <v>-0.0664707181567875</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5762036972307581</v>
       </c>
       <c r="E88" t="n">
-        <v>1.527691762993823</v>
+        <v>1.618671190661624</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.151567175904369</v>
+        <v>-1.173443200817291</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.08708298742748811</v>
+        <v>-0.05286887714462906</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5573755651682006</v>
       </c>
       <c r="E89" t="n">
-        <v>1.604562505567088</v>
+        <v>1.693688994218928</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9626082609617298</v>
+        <v>-0.9906902287605639</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.06338390961176558</v>
+        <v>-0.03121608319939626</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5390468807842826</v>
       </c>
       <c r="E90" t="n">
-        <v>1.738885336207313</v>
+        <v>1.829479903928086</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8163010989440824</v>
+        <v>-0.8605697515831332</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03007553153387739</v>
+        <v>0.01026035258150193</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.521638124089238</v>
       </c>
       <c r="E91" t="n">
-        <v>1.756228430650644</v>
+        <v>1.851032670882332</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6002940317496972</v>
+        <v>-0.6387294030363296</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01866574543395147</v>
+        <v>0.02198058830589261</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.5058778091175197</v>
       </c>
       <c r="E92" t="n">
-        <v>1.829334132886343</v>
+        <v>1.923627259590916</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4432961801100099</v>
+        <v>-0.4894439983541214</v>
       </c>
       <c r="G92" t="n">
-        <v>0.008315315543352372</v>
+        <v>0.05449850918671532</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4920066414790828</v>
       </c>
       <c r="E93" t="n">
-        <v>1.850394083933776</v>
+        <v>1.939505934489375</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2422815730707687</v>
+        <v>-0.2792842406877199</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01704335643380163</v>
+        <v>0.02903066140842341</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4797313997625366</v>
       </c>
       <c r="E94" t="n">
-        <v>1.819635174284695</v>
+        <v>1.9027740716529</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1144842837510714</v>
+        <v>-0.1495425242505497</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06918242548560936</v>
+        <v>-0.03329347302440014</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.468587271736557</v>
       </c>
       <c r="E95" t="n">
-        <v>1.773417825083434</v>
+        <v>1.854696464387557</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0008456170152189062</v>
+        <v>-0.03531657990917345</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07080420456508245</v>
+        <v>-0.03267135393411712</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4568917926549236</v>
       </c>
       <c r="E96" t="n">
-        <v>1.731524203559641</v>
+        <v>1.811312806650468</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07299618347113042</v>
+        <v>0.04192865395961459</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0941720954533308</v>
+        <v>-0.06093080864988489</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4428432974459778</v>
       </c>
       <c r="E97" t="n">
-        <v>1.615605729340288</v>
+        <v>1.670805990268694</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1288923638917062</v>
+        <v>0.1024870680332525</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1044645068734543</v>
+        <v>-0.07710956452130388</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.424914181279256</v>
       </c>
       <c r="E98" t="n">
-        <v>1.478294287383998</v>
+        <v>1.523546132153967</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1410017290078621</v>
+        <v>0.1167592118691571</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1145147797849088</v>
+        <v>-0.08281903197634245</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4031674255458246</v>
       </c>
       <c r="E99" t="n">
-        <v>1.34110238988035</v>
+        <v>1.371518524109099</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1965844102005894</v>
+        <v>0.1678730042633513</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1402924672669887</v>
+        <v>-0.1120592391403211</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3762471183786195</v>
       </c>
       <c r="E100" t="n">
-        <v>1.158590336490938</v>
+        <v>1.173293084324627</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2323086840790766</v>
+        <v>0.2098263980134665</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1692508910783097</v>
+        <v>-0.1475364951447254</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3474917770551788</v>
       </c>
       <c r="E101" t="n">
-        <v>1.033298601311322</v>
+        <v>1.050224510011757</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2284240992888683</v>
+        <v>0.209181101937467</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1842445710748072</v>
+        <v>-0.1618360854110836</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3161018258293692</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8710694600271666</v>
+        <v>0.8774040961758719</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2344928100225114</v>
+        <v>0.2082735399704659</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2009198023770991</v>
+        <v>-0.1777464761847334</v>
       </c>
     </row>
   </sheetData>
